--- a/data/financial_statements/socf/BAC.xlsx
+++ b/data/financial_statements/socf/BAC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,2707 +587,2710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-20396000000</v>
+      </c>
+      <c r="C2">
         <v>7082000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6247000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7067000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7013000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7691000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9224000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8050000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5470000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4881000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3533000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4010000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6994000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5777000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>7348000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>7311000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7278000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7167000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>6784000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>6918000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2365000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5424000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5106000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5337000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4612000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4955000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4783000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3472000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3358000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4321000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5134000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3097000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3737000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-232000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2291000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-276000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3439000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2497000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4012000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1483000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>864000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1075000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1399000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1798000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1894000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2052000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1991000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1952000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1748000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1330000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>914000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1086000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1047000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>882000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>780000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>937000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1017000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>947000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>986000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1119000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1105000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1052000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1078000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1480000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1446000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1355000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1094000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1758000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1558000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>100000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1586000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>666000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1022000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1237000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1296000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>959000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1283000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>991000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1027000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>2121000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1339000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>809000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>543000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>246000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-3034000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-441000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>712000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>599000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5132000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4760000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1965000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3655000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1960000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2274000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1429000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2152000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2266000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2051000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4495000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2782000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3217000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2471000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1775000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2955000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2188000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3349000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>284000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1572000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2131000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>914000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>600000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>438000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1081000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-100000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1047000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1866000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1694000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1589000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-1201000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3623000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6102000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-6800000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-1828000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-1453000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1130000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-5169000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2749000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>493000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1319000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>699000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-4274000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>610000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4282000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-5490000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>854000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1406000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4131000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>962000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-6923000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>8557000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-5554000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2567000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-1732000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-2301000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>947000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>276000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-2967000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>574000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>388000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-1636000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>249000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2555000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-1998000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>5031000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3245000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2537000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1206000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-15059000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-26324000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-64939000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>33206000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3062000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-4616000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-53756000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>42445000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-26568000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-28550000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>29615000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>38461000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-12807000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-11191000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-6543000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-10326000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-12052000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-17102000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>15807000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-2110000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11759000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-7589000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-16723000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-11703000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-7209000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>8142000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>8135000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-5466000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>9300000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-4506000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3222000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-7143000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>135000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-662000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>13536000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-29000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-7319000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>18576000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>22642000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>9619000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-5570000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>19820000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7926000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6413000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-9886000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12186000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5110000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-198000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-8709000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-588000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20416000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1810000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-5517000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-346000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-5256000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>17867000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1213000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-814000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-6528000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>6751000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8968000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-4518000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4810000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>535000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>3176000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-8556000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2367000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>8566000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-2971000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-7232000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-5092000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-580000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2037000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>13337000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1140000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-4464000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4933000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-14528000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>8220000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>14279000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-14876000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-118000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-8257000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-2603000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-23477000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2195000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-15689000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>21633000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-21022000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-11726000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-1792000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-1590000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3995000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-1728000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>4267000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-1852000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>11233000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-10097000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-2289000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-11236000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>3532000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-13491000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-947000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-2026000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2361000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3785000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>3521000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-4673000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>12000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>10299000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2531000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-3617000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-3319000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-165000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>10038000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>14253000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>11028000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>1508000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>282000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-812000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1083000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>574000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1005000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1989000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1879000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-160000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2132000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>35000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1208000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>882000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>773000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3348000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-766000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-1666000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-180000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>42000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2694000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1695000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1574000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1388000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>510000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>523000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-23000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>95000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-674000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-75000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>879000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-1742000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-1083000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-617000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-144000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>247000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>572000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1081000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-868000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2021000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>13154000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-5049000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-45430000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>44651000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9795000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-9311000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-52328000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>54594000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-32638000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-3006000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>19043000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>59103000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-5702000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-6725000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>15101000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-13922000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>19606000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-6518000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>40354000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-7100000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>20304000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>9649000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-12989000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-9440000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>526000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>15294000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>10897000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5688000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>25796000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-3332000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>245000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>348000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2946000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>4778000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>22723000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>11994000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>8227000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>46128000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>26468000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI11">
         <v>-233000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-185000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-266000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-255000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-153000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>55000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-3425000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>28482000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-49889000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-220917000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7498000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-8944000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>43598000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-96124000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>106472000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-124053000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-32548000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-103328000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-22383000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>19728000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-7872000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-12523000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-21404000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>31494000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-42292000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-20497000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-23188000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-29026000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-36726000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-9427000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-48035000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-27513000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-40398000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-68883000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>35398000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-20766000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-28201000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>31836000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>6926000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-10003000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-26224000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>24588000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>10628000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-3721000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>5255000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>41220000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>24852000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1769000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>214384000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-30394000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-82524000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-179706000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>16444000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-93796000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-8619000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>13355000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>72707000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2634000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-2451000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3879000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6843000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-9960000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-27447000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>20363000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>19467000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>20771000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>20345000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>24856000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>22224000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>19231000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>21971000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>23944000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>64246000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-32499000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>20983000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>16065000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-9910000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-14258000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-7609000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-13830000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-6333000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>17571000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>12436000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>3781000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-3034000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-36596000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-16750000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-52374000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-9802000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-17138000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23028000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>25798000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>42301000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>44323000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-71218000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-12658000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-10384000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-19728000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-774000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-18637000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5082000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-2067000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-920000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-10887000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-13282000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-1303000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-2071000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-12082000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-3706000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-3574000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-4920000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-18181000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-7667000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-14690000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-1376000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>4468000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>16036000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3403000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>10905000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-860000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-18342000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-12524000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-7421000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>34761000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16738000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-68408000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-58907000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-32698000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-108606000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-113080000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-53882000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>54977000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-88349000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-90411000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-43279000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-30133000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-2451000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-4767000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-24317000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-26282000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1980000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-22849000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-11917000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-15699000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-9984000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-13941000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>715000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-32510000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-9116000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-21374000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-22818000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-4768000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-14473000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-13512000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>27078000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>8471000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-14394000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-29415000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>17748000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>9602000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-3962000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1670000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>10956000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4171000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>36274000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-8447000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>19000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>34051000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>30664000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-13656000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5515000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-4196000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>21723000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-44128000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>14219000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>17954000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-4294000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1712000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-7002000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-276000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>14390000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-15052000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-8050000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2906000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>39764000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-10158000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-10399000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-12851000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>9308000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-27435000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-24617000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>23142000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2155000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>23696000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-61043000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>9113000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>14402000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-26885000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-23033000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-23165000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-26005000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-450000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-975000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-2650000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-7533000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-9914000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-4209000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-3470000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-263000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-1212000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>812000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-6362000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-7748000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-7626000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-6507000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-6263000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-5231000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-5040000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-4965000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-4858000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-4869000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-2981000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-2236000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-2728000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-1330000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-1399000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-1383000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-1000000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>2165000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-800000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-775000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-46917000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>46917000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-233000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-1442000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-1351000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-866000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-1003000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1997000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2429000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1267000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-878000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-191000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1083000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1098000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-1098000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>26000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-205000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-1083000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2363000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-855000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-1491000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2349000000</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>878000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>2069000000</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>2964000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1396000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>3067000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1494000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-926000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-4539000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>12000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-2254000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1995000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-2222000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1965000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-2145000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1831000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-2114000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-1828000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-1983000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1833000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-2083000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1848000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-464000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-1696000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-1926000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-1745000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-1905000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-1571000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-1674000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-1576000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1721000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-1148000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-1255000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-1163000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-1178000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-879000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-974000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-850000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-961000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-917000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-846000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-837000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-765000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-360000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-344000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-361000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-362000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-472000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-482000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-46141000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-87849000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7055000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>99718000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>55703000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>24187000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>88738000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>92602000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-15816000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>135447000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>147843000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>42063000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>17782000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-4191000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-3025000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>35820000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>35847000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-18782000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>18395000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>25340000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>21410000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-9159000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>10623000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>28034000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>16836000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-1183000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>19925000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>35215000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>12440000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-3620000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>34239000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>6948000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-22359000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>665000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>14401000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>9146000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>29329000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-14402000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-10077000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-37889000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-84651000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>40886000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>83040000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>43663000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>51320000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>113627000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>77938000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-12398000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>129132000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>161147000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-11866000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>22828000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>7923000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-15508000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>30556000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>21045000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-27085000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>28602000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3843000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>8658000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-9637000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>46404000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>15383000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3860000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-15418000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>29328000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>6131000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-13938000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>17830000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>38512000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-15714000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-34183000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>10679000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>27017000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-19451000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>4142000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-43581000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-36552000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-3052000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-2970000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-1335000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-417000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-936000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>526000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-2581000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>807000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1719000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1179000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-949000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>508000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-1293000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1024000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-607000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>229000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-710000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-1419000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>700000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>227000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>414000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>651000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>813000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-2354000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>351000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>837000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1406000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-74000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-178000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>946000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-1291000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-1782000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-1474000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>191000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-2000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-202000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>434000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-737000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-1358000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>6974000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-75932000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-74287000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>68367000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>19824000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-66071000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-54362000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>79457000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>11660000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>38956000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>88830000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>4466000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-14300000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-229000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-5781000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-7454000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>13659000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-33042000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>46807000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-14947000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>13677000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-9321000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>20287000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>4304000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-27773000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-8403000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>20257000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-11073000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>6912000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>971000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>23954000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>9930000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-24240000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1254000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>20323000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>10089000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>22405000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-2152000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-9772000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>348221000000</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3182,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>380463000000</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3194,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>161560000000</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3206,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>177404000000</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3218,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>157434000000</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3230,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>147738000000</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3242,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>159353000000</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3254,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>138589000000</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3266,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>131322000000</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3278,961 +3395,970 @@
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>110752000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>6974000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-75932000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>273934000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>68367000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>19824000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-66071000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>326101000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>79457000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>11660000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>38956000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>250390000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4466000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-14300000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-229000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>171623000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-7454000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>13659000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-33042000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>204241000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-14947000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>13677000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-9321000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>168025000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4304000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-27773000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-8403000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>179610000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-11073000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>6912000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>971000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>162543000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>9930000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-24240000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1254000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>151645000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>10089000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>22405000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-2152000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>100980000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>704000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>792000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>739000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>737000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>568000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>610000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>853000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>434000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>520000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>534000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>543000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>479000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>510000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>481000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>504000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>406000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>446000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>462000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>415000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>427000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>457000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>459000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>306000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>280000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>125000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>131000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>831000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-106000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-10000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>13000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>14000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>78000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>6471000000</v>
+      </c>
+      <c r="C27">
         <v>-2254000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-1995000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-2222000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-1965000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-2145000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-1831000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-2114000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1828000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1983000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1833000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-2083000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-1848000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-464000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-1696000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-1926000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-1745000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-1905000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-1571000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-1674000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-1576000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-1721000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-1148000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-1255000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-1163000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-1178000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-879000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-974000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-850000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-961000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-917000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-846000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-837000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-765000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-360000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-344000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-361000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-362000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-472000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-482000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-1.0571</v>
+      </c>
+      <c r="C28">
         <v>-1.1197</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-1.0202</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-1.1012</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.9081</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.9179</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.8695000000000001</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-1.135</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.5645</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1.9894</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-2.4132</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-1.5024</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.6555</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-1.6822</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-1.5781</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-1.6329</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-1.7324</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-1.4322</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-1.3292</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-1.3987</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-1.1917</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-1.4573</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-1.5581</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-1.5882</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1.3777</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-2.0788</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-2.4679</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-2.5161</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-1.7</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-2.0054</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-1.7764</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-2.0118</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-1.5215</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-1.6632</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-2.0464</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-1.7667</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-1.7028</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-1.9846</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-1.8995</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-2.1167</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>1579000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-13992000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-53893000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>34214000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-610000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-18558000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-63917000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>44581000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-39706000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-15133000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>9324000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>47850000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-17063000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-17688000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1388000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-22800000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>10936000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-16335000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>30357000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-17773000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>9298000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-1300000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-23263000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-17817000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-9353000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6991000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2887000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>962000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>18420000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-11576000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-3610000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-3572000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>2335000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>313000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>21556000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5977000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1500000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>40299000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>20348000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>37795000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>53334000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-51658000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-6533000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-22896000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-91468000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-136108000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-79680000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>12676000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-132672000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-19193000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-30621000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-19749000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>17277000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-3993000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-5680000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-31364000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>4047000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-21929000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-1030000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-2417000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-8681000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-11870000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>12797000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-28804000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-5542000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-16454000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-4637000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2899000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>217000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-12136000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>21926000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-7332000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-17612000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-40054000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>18255000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>28199000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>8715000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>9036000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-450000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1022000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-221000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-6266000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-9914000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-5087000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-3661000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>820000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-114000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-286000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-6336000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-7953000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-8709000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-4144000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-6263000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-5231000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-5895000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-6456000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-2509000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-4869000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-2981000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-2236000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-2728000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-1330000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-1399000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-505000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1069000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-799000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-800000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-775000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>2964000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-45521000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>49984000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1261000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-1442000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-1351000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-1792000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-5542000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>12000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>-450000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1022000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-221000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-6266000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-9914000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-5087000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-3661000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>820000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-114000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-286000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-6336000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-7953000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-8709000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-4144000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-6263000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-5231000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-5895000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-6456000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-2509000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-4869000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-2981000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-2236000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-2728000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-1330000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-1399000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-505000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1069000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2165000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-800000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-775000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2964000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-45521000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>49984000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1261000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-1442000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-1351000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-1792000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-5542000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>12000000</v>
       </c>
     </row>
